--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3183.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3183.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.184125482064627</v>
+        <v>0.992433488368988</v>
       </c>
       <c r="B1">
-        <v>2.080683002129238</v>
+        <v>1.915817856788635</v>
       </c>
       <c r="C1">
-        <v>6.989108802125735</v>
+        <v>3.435439348220825</v>
       </c>
       <c r="D1">
-        <v>3.828363239108907</v>
+        <v>3.155739068984985</v>
       </c>
       <c r="E1">
-        <v>1.444654826312878</v>
+        <v>0.3562227487564087</v>
       </c>
     </row>
   </sheetData>
